--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Predator\Desktop\5.Semester\Projektarbeit ll\Gruppe4\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF1CCC-BC29-4E08-89C4-0CBFDC8FBDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390377E5-15EC-4D17-9A45-022A2991D74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,19 +187,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,28 +480,28 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" t="s">
         <v>24</v>
       </c>
@@ -511,21 +511,21 @@
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,14 +542,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -559,12 +559,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>11</v>
       </c>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>9</v>
       </c>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Predator\Desktop\5.Semester\Projektarbeit ll\Gruppe4\DSM-Group-04\group04\org\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390377E5-15EC-4D17-9A45-022A2991D74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C27C6-A1B1-4982-BE2D-6EBA5DA7133A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Reza</t>
   </si>
@@ -100,13 +100,31 @@
   </si>
   <si>
     <t>Assessment:</t>
+  </si>
+  <si>
+    <t>29.04.</t>
+  </si>
+  <si>
+    <t>Node class</t>
+  </si>
+  <si>
+    <t>SNOMED mapping</t>
+  </si>
+  <si>
+    <t>Burst requests</t>
+  </si>
+  <si>
+    <t>Tasks delayed</t>
+  </si>
+  <si>
+    <t>Find SNOMED Ids for concepts (ihCCOntology)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +161,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +191,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,14 +205,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -194,12 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,29 +525,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" t="s">
@@ -514,18 +563,21 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -559,45 +611,72 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C27C6-A1B1-4982-BE2D-6EBA5DA7133A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A1E96-7D1D-427F-B398-83718B143522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,19 +228,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -528,7 +531,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,14 +546,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" t="s">
         <v>24</v>
       </c>
@@ -563,19 +566,19 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -626,7 +629,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -667,10 +670,10 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A1E96-7D1D-427F-B398-83718B143522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDDC14B-5566-460D-BBC7-73EBA6167FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Reza</t>
   </si>
@@ -114,10 +114,13 @@
     <t>Burst requests</t>
   </si>
   <si>
-    <t>Tasks delayed</t>
-  </si>
-  <si>
     <t>Find SNOMED Ids for concepts (ihCCOntology)</t>
+  </si>
+  <si>
+    <t>Tasks delayed / cancelled</t>
+  </si>
+  <si>
+    <t>Reworked node depth</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +570,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -632,7 +635,7 @@
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -668,12 +671,17 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDDC14B-5566-460D-BBC7-73EBA6167FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B32F2-3BC8-4C2E-B3BB-32AE17C7DDAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Reza</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>Reworked node depth</t>
+  </si>
+  <si>
+    <t>06.05.</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Identify common parent</t>
+  </si>
+  <si>
+    <t>Distance between nodes</t>
+  </si>
+  <si>
+    <t>Identify relevant SNOMED axes</t>
+  </si>
+  <si>
+    <t>(depth search, breadth search, Kruskal)</t>
   </si>
 </sst>
 </file>
@@ -531,17 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
@@ -648,7 +666,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -656,13 +674,13 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
@@ -670,7 +688,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -681,6 +699,28 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B32F2-3BC8-4C2E-B3BB-32AE17C7DDAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F664A-7A6D-49E7-B1E1-007352162827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Reza</t>
   </si>
@@ -138,7 +138,16 @@
     <t>Identify relevant SNOMED axes</t>
   </si>
   <si>
-    <t>(depth search, breadth search, Kruskal)</t>
+    <t>12.05.</t>
+  </si>
+  <si>
+    <t>Save graph offline</t>
+  </si>
+  <si>
+    <t>Compute distances from ihCCOntology</t>
+  </si>
+  <si>
+    <t>Get descendant count for given conceptid</t>
   </si>
 </sst>
 </file>
@@ -549,17 +558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
@@ -705,29 +714,40 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F664A-7A6D-49E7-B1E1-007352162827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924ED43-F162-4248-97D2-6A9B29C2371E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Reza</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Get descendant count for given conceptid</t>
+  </si>
+  <si>
+    <t>19.05.</t>
+  </si>
+  <si>
+    <t>Meet with Keno and discuss further steps</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -731,23 +737,35 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924ED43-F162-4248-97D2-6A9B29C2371E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEBC0E-7FCC-4204-89E5-65983D306B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Reza</t>
   </si>
@@ -153,7 +153,10 @@
     <t>19.05.</t>
   </si>
   <si>
-    <t>Meet with Keno and discuss further steps</t>
+    <t>Prepare code for Keno (zip, no bursts)</t>
+  </si>
+  <si>
+    <t>Concept distance matrix</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,19 +756,22 @@
         <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars Andersen\Desktop\DSM\Semester 5\Project\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEBC0E-7FCC-4204-89E5-65983D306B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58D8990-F418-40D5-86D9-28181C07E5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4810" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Reza</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Concept distance matrix</t>
+  </si>
+  <si>
+    <t>10.06.</t>
+  </si>
+  <si>
+    <t>update code for Keno with visited node</t>
+  </si>
+  <si>
+    <t>Matrix for David</t>
+  </si>
+  <si>
+    <t>project report</t>
+  </si>
+  <si>
+    <t>thoughts about presentation</t>
+  </si>
+  <si>
+    <t>different metric approaches</t>
   </si>
 </sst>
 </file>
@@ -267,7 +285,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -283,13 +301,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,30 +591,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.53125" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.86328125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" t="s">
@@ -609,17 +633,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -636,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -653,12 +677,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -675,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
@@ -683,12 +707,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -705,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -714,12 +738,12 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -736,7 +760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -751,21 +775,66 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="10">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D14:E14"/>

--- a/group04/org/Work plan.xlsx
+++ b/group04/org/Work plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars Andersen\Desktop\DSM\Semester 5\Project\DSM-Group-04\group04\org\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morten Dreher\Desktop\DSM\DSM5\Projekt\Group 04\DSM-Group-04\group04\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58D8990-F418-40D5-86D9-28181C07E5EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3BA395-0FA3-4F98-B00E-32B7B3308F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4810" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Reza</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>different metric approaches</t>
+  </si>
+  <si>
+    <t>17.06-end of project</t>
+  </si>
+  <si>
+    <t>Presentation: Problems</t>
+  </si>
+  <si>
+    <t>Presentation: Results</t>
+  </si>
+  <si>
+    <t>Presentation: Introduction, Methods</t>
+  </si>
+  <si>
+    <t>24.06.</t>
   </si>
 </sst>
 </file>
@@ -285,35 +300,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,32 +607,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.53125" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" t="s">
         <v>24</v>
       </c>
@@ -633,17 +649,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -660,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -677,12 +693,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -699,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
@@ -707,12 +723,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -729,21 +745,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -760,7 +776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -770,77 +786,92 @@
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="10">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="7" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
